--- a/Data/Results/HalfResultSite.xlsx
+++ b/Data/Results/HalfResultSite.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -405,6 +405,41 @@
           <t>day7</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>day8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>day9</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>day10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>day11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>day12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>day13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>day14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -412,37 +447,72 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[26, 24]</t>
+          <t>[3, 24]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>[24, 26]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[11, 24]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[24, 10]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[24, 26]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[26, 7]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[26, 11]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[11, 26]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[26, 10]</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[26, 11]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>[22, 26]</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[11, 22]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[11, 10]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[24, 10]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[10, 3]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[10, 7]</t>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[3, 7]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[3, 8]</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
@@ -452,37 +522,72 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[26, 24]</t>
+          <t>[3, 24]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>[24, 26]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[11, 24]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[24, 10]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[24, 26]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[26, 7]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[26, 11]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[11, 26]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[26, 10]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[26, 11]</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>[22, 26]</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[11, 22]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[11, 10]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[24, 10]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[10, 3]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[10, 7]</t>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[3, 7]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[3, 8]</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
@@ -492,37 +597,72 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[26, 24]</t>
+          <t>[3, 24]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>[24, 26]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[11, 24]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[24, 10]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[24, 26]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[26, 7]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[26, 11]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[11, 26]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[26, 10]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[26, 11]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>[22, 26]</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[11, 22]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[11, 10]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[24, 10]</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[10, 3]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>[10, 7]</t>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[3, 7]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[3, 8]</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
@@ -532,37 +672,72 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[26, 24]</t>
+          <t>[3, 24]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>[24, 26]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[11, 24]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[24, 10]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[24, 26]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[26, 7]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[26, 11]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[11, 26]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[26, 10]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>[26, 11]</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>[22, 26]</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[11, 22]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[11, 10]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[24, 10]</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>[10, 3]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>[10, 7]</t>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[3, 7]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[3, 8]</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
@@ -572,37 +747,72 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[26, 24]</t>
+          <t>[3, 24]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>[24, 26]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[11, 24]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[24, 10]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[24, 26]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[26, 7]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[26, 11]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[11, 26]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[26, 10]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[26, 11]</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>[22, 26]</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[11, 22]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[11, 10]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[24, 10]</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>[10, 3]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>[10, 7]</t>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[3, 7]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[3, 8]</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
@@ -612,37 +822,72 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[26, 24]</t>
+          <t>[3, 24]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>[24, 26]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[11, 24]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[24, 10]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[24, 26]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[26, 7]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[26, 11]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[11, 26]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[26, 10]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>[26, 11]</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>[22, 26]</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[11, 22]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[11, 10]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>[24, 10]</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[10, 3]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[10, 7]</t>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>[3, 7]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>[3, 8]</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
@@ -652,37 +897,72 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[26, 24]</t>
+          <t>[3, 24]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>[24, 26]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[11, 24]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[24, 10]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[24, 26]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[26, 7]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[26, 11]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[11, 26]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[26, 10]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>[26, 11]</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>[22, 26]</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[11, 22]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[11, 10]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[24, 10]</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>[10, 3]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[10, 7]</t>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>[3, 7]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>[3, 8]</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
@@ -692,37 +972,72 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[26, 24]</t>
+          <t>[8, 22]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[22, 26]</t>
+          <t>[3, 22]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[11, 22]</t>
+          <t>[8, 3]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[11, 10]</t>
+          <t>[8, 3]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[24, 10]</t>
+          <t>[10, 11]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[10, 3]</t>
+          <t>[10, 24]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[10, 7]</t>
+          <t>[7, 10]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[7, 8]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[24, 8]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[7, 24]</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[24, 20]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>[22, 24]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>[22, 10]</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>[10, 22]</t>
         </is>
       </c>
     </row>
@@ -732,37 +1047,72 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[8, 10]</t>
+          <t>[8, 22]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>[3, 22]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[8, 3]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[8, 3]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>[10, 11]</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[10, 24]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[7, 10]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[7, 8]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[24, 8]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>[7, 24]</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[26, 8]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>[8, 26]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>[8, 26]</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>[22, 26]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>[22, 8]</t>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[24, 20]</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>[22, 24]</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>[22, 10]</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>[10, 22]</t>
         </is>
       </c>
     </row>
@@ -772,37 +1122,72 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[8, 10]</t>
+          <t>[8, 22]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>[3, 22]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[8, 3]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[8, 3]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>[10, 11]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[10, 24]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[7, 10]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[7, 8]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[24, 8]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>[7, 24]</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[26, 8]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>[8, 26]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>[8, 26]</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>[22, 26]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>[22, 8]</t>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[24, 20]</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>[22, 24]</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[22, 10]</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>[10, 22]</t>
         </is>
       </c>
     </row>
@@ -812,37 +1197,72 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[8, 10]</t>
+          <t>[8, 22]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>[3, 22]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[8, 3]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[8, 3]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[10, 11]</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[10, 24]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[7, 10]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[7, 8]</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[24, 8]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>[7, 24]</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[26, 8]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[8, 26]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>[8, 26]</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>[22, 26]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>[22, 8]</t>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[24, 20]</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>[22, 24]</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>[22, 10]</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>[10, 22]</t>
         </is>
       </c>
     </row>
@@ -852,37 +1272,72 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[8, 10]</t>
+          <t>[8, 22]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>[3, 22]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[8, 3]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[8, 3]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[10, 11]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[10, 24]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[7, 10]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[7, 8]</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[24, 8]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>[7, 24]</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[26, 8]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>[8, 26]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>[8, 26]</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>[22, 26]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>[22, 8]</t>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[24, 20]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>[22, 24]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>[22, 10]</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[10, 22]</t>
         </is>
       </c>
     </row>
@@ -892,37 +1347,72 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[8, 10]</t>
+          <t>[8, 22]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>[3, 22]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>[8, 3]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[8, 3]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[10, 11]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[10, 24]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[7, 10]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[7, 8]</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[24, 8]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>[7, 24]</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[26, 8]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>[8, 26]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>[8, 26]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>[22, 26]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>[22, 8]</t>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[24, 20]</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>[22, 24]</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>[22, 10]</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[10, 22]</t>
         </is>
       </c>
     </row>
@@ -932,37 +1422,72 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[8, 10]</t>
+          <t>[8, 22]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>[3, 22]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[8, 3]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[8, 3]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[10, 11]</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>[10, 24]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[7, 10]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[7, 8]</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[24, 8]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>[7, 24]</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[26, 8]</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[8, 26]</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>[8, 26]</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>[22, 26]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>[22, 8]</t>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[24, 20]</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>[22, 24]</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>[22, 10]</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[10, 22]</t>
         </is>
       </c>
     </row>
@@ -972,37 +1497,72 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>[7, 10]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[7, 10]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[22, 7]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[22, 7]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[3, 19]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[22, 8]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[3, 24]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[22, 3]</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[22, 3]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>[3, 10]</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>[8, 10]</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>[7, 24]</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[26, 8]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>[8, 26]</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>[8, 26]</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>[22, 26]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>[22, 8]</t>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>[26, 19]</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>[26, 24]</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[26, 7]</t>
         </is>
       </c>
     </row>
@@ -1012,37 +1572,72 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>[7, 10]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[7, 10]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[22, 7]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[22, 7]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[3, 19]</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[22, 8]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[3, 24]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[22, 3]</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[22, 3]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[3, 10]</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>[8, 10]</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>[7, 24]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[26, 8]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[8, 26]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[8, 26]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[22, 26]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>[22, 8]</t>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>[26, 19]</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>[26, 24]</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>[26, 7]</t>
         </is>
       </c>
     </row>
@@ -1052,37 +1647,72 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[7, 10]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>[7, 10]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[22, 7]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[22, 7]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[3, 19]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>[22, 8]</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[3, 24]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[22, 3]</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[22, 3]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t>[3, 10]</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>[3, 24]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[22, 7]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>[11, 7]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>[11, 24]</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>[8, 10]</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>[26, 19]</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>[26, 24]</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>[26, 7]</t>
         </is>
       </c>
     </row>
@@ -1092,37 +1722,72 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[7, 10]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>[7, 10]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[22, 7]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[22, 7]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[3, 19]</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>[22, 8]</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[3, 24]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[22, 3]</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[22, 3]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>[3, 10]</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>[3, 24]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>[22, 7]</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>[11, 7]</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>[11, 24]</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[8, 10]</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>[26, 19]</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>[26, 24]</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[26, 7]</t>
         </is>
       </c>
     </row>
@@ -1132,37 +1797,72 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[7, 10]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>[7, 10]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[22, 7]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[22, 7]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[3, 19]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>[22, 8]</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[3, 24]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[22, 3]</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[22, 3]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>[3, 10]</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>[3, 24]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>[22, 7]</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>[11, 7]</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>[11, 24]</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[8, 10]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>[26, 19]</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>[26, 24]</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>[26, 7]</t>
         </is>
       </c>
     </row>
@@ -1172,37 +1872,72 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[7, 10]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>[7, 10]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[22, 7]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[22, 7]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[3, 19]</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>[22, 8]</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[3, 24]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[22, 3]</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[22, 3]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>[3, 10]</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>[3, 24]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>[22, 7]</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[11, 7]</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>[11, 24]</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[8, 10]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>[26, 19]</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>[26, 24]</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>[26, 7]</t>
         </is>
       </c>
     </row>
@@ -1212,37 +1947,72 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[7, 10]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>[7, 10]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[22, 7]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[22, 7]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[3, 19]</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>[22, 8]</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[3, 24]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[22, 3]</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[22, 3]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>[3, 10]</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>[3, 24]</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>[22, 7]</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>[11, 7]</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>[11, 24]</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[8, 10]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>[26, 19]</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>[26, 24]</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[26, 7]</t>
         </is>
       </c>
     </row>
@@ -1252,37 +2022,72 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[3, 10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[3, 24]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[22, 7]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[11, 7]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[11, 24]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[26, 24]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1292,37 +2097,72 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[3, 10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[3, 24]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[22, 7]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[11, 7]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[11, 24]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[26, 24]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1332,37 +2172,72 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[3, 10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[3, 24]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[22, 7]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[11, 7]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[11, 24]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[26, 24]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1389,6 +2264,27 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1403,7 +2299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1447,6 +2343,41 @@
           <t>day7</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>day8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>day9</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>day10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>day11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>day12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>day13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>day14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1454,37 +2385,72 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[16, 17]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[16, 17]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[4, 5]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[4, 30]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[30, 5]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[30, 5]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1494,37 +2460,72 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[16, 17]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[16, 17]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[4, 5]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[4, 30]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[30, 5]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[30, 5]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1534,37 +2535,72 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[16, 17]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[16, 17]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[4, 5]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[4, 30]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[30, 5]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[30, 5]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1574,37 +2610,72 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[16, 17]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[16, 17]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[4, 5]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[4, 30]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[30, 5]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[30, 5]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1614,37 +2685,72 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[16, 17]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[16, 17]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[4, 5]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[4, 30]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[30, 5]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[30, 5]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1654,37 +2760,72 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[16, 17]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[16, 17]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[4, 5]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[4, 30]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[30, 5]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[30, 5]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1694,37 +2835,72 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>[23, 21]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[17, 21]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[21, 17]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[16, 21]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>[16, 17]</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[17, 16]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[16, 21]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[21, 17]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[21, 16]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>[21, 23]</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[21, 17]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>[16, 17]</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[16, 1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[4, 5]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[4, 30]</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>[30, 5]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[30, 5]</t>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>[21, 16]</t>
         </is>
       </c>
     </row>
@@ -1734,37 +2910,72 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>[23, 21]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[17, 21]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[21, 17]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[16, 21]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>[16, 17]</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[17, 16]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[16, 21]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[21, 17]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[21, 16]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[21, 23]</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[21, 17]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>[16, 17]</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[16, 1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[4, 5]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>[4, 30]</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>[30, 5]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>[30, 5]</t>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>[21, 16]</t>
         </is>
       </c>
     </row>
@@ -1774,37 +2985,72 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[23, 29]</t>
+          <t>[23, 21]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[21, 29]</t>
+          <t>[17, 21]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[21, 29]</t>
+          <t>[21, 17]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[29, 16]</t>
+          <t>[16, 21]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[16, 17]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>[17, 16]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[16, 21]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[21, 17]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[21, 16]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>[21, 23]</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[21, 17]</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>[16, 17]</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>[16, 17]</t>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>[21, 16]</t>
         </is>
       </c>
     </row>
@@ -1814,37 +3060,72 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[23, 29]</t>
+          <t>[23, 21]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[21, 29]</t>
+          <t>[17, 21]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[21, 29]</t>
+          <t>[21, 17]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[29, 16]</t>
+          <t>[16, 21]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[16, 17]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>[17, 16]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[16, 21]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[21, 17]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[21, 16]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[21, 23]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[21, 17]</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>[16, 17]</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>[16, 17]</t>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>[21, 16]</t>
         </is>
       </c>
     </row>
@@ -1854,37 +3135,72 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[23, 29]</t>
+          <t>[23, 21]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[21, 29]</t>
+          <t>[17, 21]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[21, 29]</t>
+          <t>[21, 17]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[29, 16]</t>
+          <t>[16, 21]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[16, 17]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>[17, 16]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[16, 21]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[21, 17]</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[21, 16]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>[21, 23]</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[21, 17]</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>[16, 17]</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>[16, 17]</t>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>[21, 16]</t>
         </is>
       </c>
     </row>
@@ -1894,37 +3210,72 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[23, 29]</t>
+          <t>[23, 21]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[21, 29]</t>
+          <t>[17, 21]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[21, 29]</t>
+          <t>[21, 17]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[29, 16]</t>
+          <t>[16, 21]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[16, 17]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>[17, 16]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[16, 21]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[21, 17]</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[21, 16]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>[21, 23]</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[21, 17]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>[16, 17]</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>[16, 17]</t>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[21, 16]</t>
         </is>
       </c>
     </row>
@@ -1934,37 +3285,72 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[23, 29]</t>
+          <t>[23, 21]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[21, 29]</t>
+          <t>[17, 21]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[21, 29]</t>
+          <t>[21, 17]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[29, 16]</t>
+          <t>[16, 21]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[16, 17]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>[17, 16]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[16, 21]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[21, 17]</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[21, 16]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>[21, 23]</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[21, 17]</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>[16, 17]</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>[16, 17]</t>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[21, 16]</t>
         </is>
       </c>
     </row>
@@ -1974,37 +3360,72 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[23, 29]</t>
+          <t>[23, 21]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[21, 29]</t>
+          <t>[17, 21]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[21, 29]</t>
+          <t>[21, 17]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[29, 16]</t>
+          <t>[16, 21]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[16, 17]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>[17, 16]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[16, 21]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[21, 17]</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[21, 16]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>[21, 23]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[21, 17]</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>[16, 17]</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>[16, 17]</t>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[21, 16]</t>
         </is>
       </c>
     </row>
@@ -2014,37 +3435,72 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[23, 29]</t>
+          <t>[23, 21]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[21, 29]</t>
+          <t>[17, 21]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[21, 29]</t>
+          <t>[21, 17]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[29, 16]</t>
+          <t>[16, 21]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[16, 17]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>[17, 16]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[16, 21]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[21, 17]</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[21, 16]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>[21, 23]</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[21, 17]</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>[16, 17]</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>[16, 17]</t>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[21, 16]</t>
         </is>
       </c>
     </row>
@@ -2054,37 +3510,72 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[23, 29]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[21, 29]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[21, 29]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[29, 16]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[16, 17]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[16, 17]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2094,37 +3585,72 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[30, 19]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[30, 15]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[17, 30]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[17, 21]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[21, 19]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[21, 1]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[15, 21]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2134,37 +3660,72 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[30, 19]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[30, 15]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[17, 30]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[17, 21]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[21, 19]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[21, 1]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[15, 21]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2174,37 +3735,72 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[30, 19]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[30, 15]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[17, 30]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[17, 21]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[21, 19]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[21, 1]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[15, 21]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2214,37 +3810,72 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[30, 19]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[30, 15]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[17, 30]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[17, 21]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[21, 19]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[21, 1]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[15, 21]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2254,37 +3885,72 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[30, 19]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[30, 15]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[17, 30]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[17, 21]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[21, 19]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[21, 1]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[15, 21]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2294,37 +3960,72 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[30, 19]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[30, 15]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[17, 30]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[17, 21]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[21, 19]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[21, 1]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[15, 21]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2334,37 +4035,72 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[30, 19]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[30, 15]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[17, 30]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[17, 21]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[21, 19]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[21, 1]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[15, 21]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2374,37 +4110,72 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[30, 19]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[30, 15]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[17, 30]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[17, 21]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[21, 19]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[21, 1]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[15, 21]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2431,6 +4202,27 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>9</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2445,7 +4237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2489,6 +4281,41 @@
           <t>day7</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>day8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>day9</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>day10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>day11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>day12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>day13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>day14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2496,37 +4323,72 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[1, 9]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[6, 5]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[9, 5]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[2, 15]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[15, 5]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[9, 2]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[9, 2]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2536,37 +4398,72 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[1, 9]</t>
+          <t>[2, 5]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>[9, 1]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[1, 2]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[14, 9]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[13, 9]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[15, 1]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[14, 6]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[15, 14]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>[13, 6]</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[2, 13]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[2, 13]</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>[6, 5]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[9, 5]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[2, 15]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[15, 5]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[9, 2]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[9, 2]</t>
         </is>
       </c>
     </row>
@@ -2576,37 +4473,72 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[1, 9]</t>
+          <t>[2, 5]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>[9, 1]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[1, 2]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[14, 9]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[13, 9]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[15, 1]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[14, 6]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[15, 14]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[13, 6]</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[2, 13]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[2, 13]</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>[6, 5]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[9, 5]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[2, 15]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[15, 5]</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[9, 2]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>[9, 2]</t>
         </is>
       </c>
     </row>
@@ -2616,37 +4548,72 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[1, 9]</t>
+          <t>[2, 5]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>[9, 1]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[1, 2]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[14, 9]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[13, 9]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[15, 1]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[14, 6]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[15, 14]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[13, 6]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[2, 13]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[2, 13]</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>[6, 5]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[9, 5]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[2, 15]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[15, 5]</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>[9, 2]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>[9, 2]</t>
         </is>
       </c>
     </row>
@@ -2656,37 +4623,72 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[1, 9]</t>
+          <t>[2, 5]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>[9, 1]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[1, 2]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[14, 9]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[13, 9]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[15, 1]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[14, 6]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[15, 14]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[13, 6]</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[2, 13]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[2, 13]</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>[6, 5]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[9, 5]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[2, 15]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[15, 5]</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>[9, 2]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>[9, 2]</t>
         </is>
       </c>
     </row>
@@ -2696,37 +4698,72 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[1, 9]</t>
+          <t>[2, 5]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>[9, 1]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[1, 2]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[14, 9]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[13, 9]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[15, 1]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[14, 6]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[15, 14]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[13, 6]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>[2, 13]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>[2, 13]</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>[6, 5]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[9, 5]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[2, 15]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>[15, 5]</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[9, 2]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[9, 2]</t>
         </is>
       </c>
     </row>
@@ -2736,37 +4773,72 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[1, 9]</t>
+          <t>[2, 5]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>[9, 1]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[1, 2]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[14, 9]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[13, 9]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[15, 1]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[14, 6]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[15, 14]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[13, 6]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>[2, 13]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>[2, 13]</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>[6, 5]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[9, 5]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[2, 15]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[15, 5]</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>[9, 2]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[9, 2]</t>
         </is>
       </c>
     </row>
@@ -2776,37 +4848,72 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[1, 9]</t>
+          <t>[2, 5]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>[9, 1]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[1, 2]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[14, 9]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[13, 9]</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[15, 1]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[14, 6]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[15, 14]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[13, 6]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>[2, 13]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>[2, 13]</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>[6, 5]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[9, 5]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[2, 15]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>[15, 5]</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>[9, 2]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>[9, 2]</t>
         </is>
       </c>
     </row>
@@ -2816,37 +4923,72 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[13, 28]</t>
+          <t>[6, 14]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[13, 18]</t>
+          <t>[15, 6]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[18, 6]</t>
+          <t>[5, 13]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[9, 6]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[14, 6]</t>
+          <t>[5, 6]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[15, 27]</t>
+          <t>[5, 9]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[27]</t>
+          <t>[2, 5]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[9, 5]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[6, 9]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>[2, 15]</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>[6, 15]</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>[14, 15]</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>[2, 14]</t>
         </is>
       </c>
     </row>
@@ -2856,37 +4998,72 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[13, 28]</t>
+          <t>[6, 14]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[13, 18]</t>
+          <t>[15, 6]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[18, 6]</t>
+          <t>[5, 13]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[9, 6]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[14, 6]</t>
+          <t>[5, 6]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[15, 27]</t>
+          <t>[5, 9]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[27]</t>
+          <t>[2, 5]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[9, 5]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[6, 9]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[2, 15]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>[6, 15]</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[14, 15]</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>[2, 14]</t>
         </is>
       </c>
     </row>
@@ -2896,37 +5073,72 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[13, 28]</t>
+          <t>[6, 14]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[13, 18]</t>
+          <t>[15, 6]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[18, 6]</t>
+          <t>[5, 13]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[9, 6]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[14, 6]</t>
+          <t>[5, 6]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[15, 27]</t>
+          <t>[5, 9]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[27]</t>
+          <t>[2, 5]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[9, 5]</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[6, 9]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>[2, 15]</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>[6, 15]</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>[14, 15]</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>[2, 14]</t>
         </is>
       </c>
     </row>
@@ -2936,37 +5148,72 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[13, 28]</t>
+          <t>[6, 14]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[13, 18]</t>
+          <t>[15, 6]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[18, 6]</t>
+          <t>[5, 13]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[9, 6]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[14, 6]</t>
+          <t>[5, 6]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[15, 27]</t>
+          <t>[5, 9]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[27]</t>
+          <t>[2, 5]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[9, 5]</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[6, 9]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>[2, 15]</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>[6, 15]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>[14, 15]</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[2, 14]</t>
         </is>
       </c>
     </row>
@@ -2976,37 +5223,72 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[13, 28]</t>
+          <t>[6, 14]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[13, 18]</t>
+          <t>[15, 6]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[18, 6]</t>
+          <t>[5, 13]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[9, 6]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[14, 6]</t>
+          <t>[5, 6]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[15, 27]</t>
+          <t>[5, 9]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[27]</t>
+          <t>[2, 5]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[9, 5]</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[6, 9]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>[2, 15]</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>[6, 15]</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>[14, 15]</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[2, 14]</t>
         </is>
       </c>
     </row>
@@ -3016,37 +5298,72 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[13, 28]</t>
+          <t>[6, 14]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[13, 18]</t>
+          <t>[15, 6]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[18, 6]</t>
+          <t>[5, 13]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[9, 6]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[14, 6]</t>
+          <t>[5, 6]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[15, 27]</t>
+          <t>[5, 9]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[27]</t>
+          <t>[2, 5]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[9, 5]</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[6, 9]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>[2, 15]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>[6, 15]</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>[14, 15]</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[2, 14]</t>
         </is>
       </c>
     </row>
@@ -3056,37 +5373,72 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[13, 28]</t>
+          <t>[6, 14]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[13, 18]</t>
+          <t>[15, 6]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[18, 6]</t>
+          <t>[5, 13]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[9, 6]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[14, 6]</t>
+          <t>[5, 6]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[15, 27]</t>
+          <t>[5, 9]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[27]</t>
+          <t>[2, 5]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[9, 5]</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[6, 9]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>[2, 15]</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[14, 1]</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>[6, 15]</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>[14, 15]</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[2, 14]</t>
         </is>
       </c>
     </row>
@@ -3096,37 +5448,72 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[13, 28]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[13, 18]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[18, 6]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[9, 6]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[14, 6]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[15, 27]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[27]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3136,37 +5523,72 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[28, 2]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[27, 14]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[27, 18]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[18, 28]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[18, 28]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3176,37 +5598,72 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[28, 2]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[27, 14]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[27, 18]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[18, 28]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[18, 28]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3216,37 +5673,72 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[28, 2]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[27, 14]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[27, 18]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[18, 28]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[18, 28]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3256,37 +5748,72 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[28, 2]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[27, 14]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[27, 18]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[18, 28]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[18, 28]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3296,37 +5823,72 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[28, 2]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[27, 14]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[27, 18]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[18, 28]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[18, 28]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3336,37 +5898,72 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[28, 2]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[27, 14]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[27, 18]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[18, 28]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[18, 28]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3376,37 +5973,72 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[28, 2]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[27, 14]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[27, 18]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[18, 28]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[18, 28]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3416,37 +6048,72 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[28, 2]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[27, 14]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[27, 18]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[18, 28]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[18, 28]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3473,7 +6140,28 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3487,7 +6175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3531,6 +6219,41 @@
           <t>day7</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>day8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>day9</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>day10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>day11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>day12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>day13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>day14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -3538,37 +6261,72 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>[20, 1]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[29, 28]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[28, 27]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[23, 11]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[27, 23]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[19, 29]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[23, 6]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[29, 11]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[2, 23]</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>[29, 23]</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[2, 14]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[11, 20]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[14, 23]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[23, 6]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[20, 13]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[20, 29]</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>[27, 19]</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[29, 20]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[20, 27]</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[29, 13]</t>
         </is>
       </c>
     </row>
@@ -3578,37 +6336,72 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>[20, 1]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[29, 28]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[28, 27]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[23, 11]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[27, 23]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[19, 29]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[23, 6]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[29, 11]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[2, 23]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>[29, 23]</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[2, 14]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[11, 20]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[14, 23]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[23, 6]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[20, 13]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[20, 29]</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>[27, 19]</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[29, 20]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[20, 27]</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>[29, 13]</t>
         </is>
       </c>
     </row>
@@ -3618,37 +6411,72 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>[20, 1]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[29, 28]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[28, 27]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[23, 11]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[27, 23]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[19, 29]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[23, 6]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[29, 11]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[2, 23]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>[29, 23]</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[2, 14]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[11, 20]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[14, 23]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[23, 6]</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[20, 13]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>[20, 29]</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[27, 19]</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[29, 20]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[20, 27]</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>[29, 13]</t>
         </is>
       </c>
     </row>
@@ -3658,37 +6486,72 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>[20, 1]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[29, 28]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[28, 27]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[23, 11]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[27, 23]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[19, 29]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[23, 6]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[29, 11]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[2, 23]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>[29, 23]</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[2, 14]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[11, 20]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[14, 23]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[23, 6]</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>[20, 13]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>[20, 29]</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[27, 19]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[29, 20]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[20, 27]</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>[29, 13]</t>
         </is>
       </c>
     </row>
@@ -3698,37 +6561,72 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>[20, 1]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[29, 28]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[28, 27]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[23, 11]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[27, 23]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[19, 29]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[23, 6]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[29, 11]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[2, 23]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>[29, 23]</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[2, 14]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[11, 20]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[14, 23]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[23, 6]</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>[20, 13]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>[20, 29]</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[27, 19]</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[29, 20]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[20, 27]</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>[29, 13]</t>
         </is>
       </c>
     </row>
@@ -3738,37 +6636,72 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>[20, 1]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[29, 28]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[28, 27]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[23, 11]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[27, 23]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[19, 29]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[23, 6]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[29, 11]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[2, 23]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>[29, 23]</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[2, 14]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[11, 20]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[14, 23]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>[23, 6]</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[20, 13]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[20, 29]</t>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[27, 19]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>[29, 20]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>[20, 27]</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>[29, 13]</t>
         </is>
       </c>
     </row>
@@ -3778,37 +6711,72 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>[20, 1]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[29, 28]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[28, 27]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[23, 11]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[27, 23]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[19, 29]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[23, 6]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[29, 11]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[2, 23]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>[29, 23]</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[2, 14]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[11, 20]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[14, 23]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[23, 6]</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>[20, 13]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[20, 29]</t>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[27, 19]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>[29, 20]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>[20, 27]</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>[29, 13]</t>
         </is>
       </c>
     </row>
@@ -3818,37 +6786,72 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>[20, 1]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[29, 28]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[28, 27]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[23, 11]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[27, 23]</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[19, 29]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[23, 6]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[29, 11]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[2, 23]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>[29, 23]</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[2, 14]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[11, 20]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[14, 23]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>[23, 6]</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>[20, 13]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>[20, 29]</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[27, 19]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>[29, 20]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>[20, 27]</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>[29, 13]</t>
         </is>
       </c>
     </row>
@@ -3858,37 +6861,72 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[11, 29]</t>
+          <t>[20, 13]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[2, 23]</t>
+          <t>[13, 2]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[13, 19]</t>
+          <t>[11, 6]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[27, 1]</t>
+          <t>[23, 20]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[20, 27]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[20, 28]</t>
+          <t>[6, 20]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[1, 20]</t>
+          <t>[11, 13]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[11, 1]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[27, 19]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>[29, 20]</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[23, 29]</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>[28, 14]</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>[11, 19]</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
@@ -3898,37 +6936,72 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[11, 29]</t>
+          <t>[20, 13]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[2, 23]</t>
+          <t>[13, 2]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[13, 19]</t>
+          <t>[11, 6]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[27, 1]</t>
+          <t>[23, 20]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[20, 27]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[20, 28]</t>
+          <t>[6, 20]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[1, 20]</t>
+          <t>[11, 13]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[11, 1]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[27, 19]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[29, 20]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[23, 29]</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>[28, 14]</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[11, 19]</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
@@ -3938,37 +7011,72 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[11, 29]</t>
+          <t>[20, 13]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[2, 23]</t>
+          <t>[13, 2]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[13, 19]</t>
+          <t>[11, 6]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[27, 1]</t>
+          <t>[23, 20]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[20, 27]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[20, 28]</t>
+          <t>[6, 20]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[1, 20]</t>
+          <t>[11, 13]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[11, 1]</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[27, 19]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>[29, 20]</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[23, 29]</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>[28, 14]</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>[11, 19]</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
@@ -3978,37 +7086,72 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[11, 29]</t>
+          <t>[20, 13]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[2, 23]</t>
+          <t>[13, 2]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[13, 19]</t>
+          <t>[11, 6]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[27, 1]</t>
+          <t>[23, 20]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[20, 27]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[20, 28]</t>
+          <t>[6, 20]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[1, 20]</t>
+          <t>[11, 13]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[11, 1]</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[27, 19]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>[29, 20]</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[23, 29]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>[28, 14]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>[11, 19]</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
@@ -4018,37 +7161,72 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[11, 29]</t>
+          <t>[20, 13]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[2, 23]</t>
+          <t>[13, 2]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[13, 19]</t>
+          <t>[11, 6]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[27, 1]</t>
+          <t>[23, 20]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[20, 27]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[20, 28]</t>
+          <t>[6, 20]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[1, 20]</t>
+          <t>[11, 13]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[11, 1]</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[27, 19]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>[29, 20]</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[23, 29]</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>[28, 14]</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>[11, 19]</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
@@ -4058,37 +7236,72 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[11, 29]</t>
+          <t>[20, 13]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[2, 23]</t>
+          <t>[13, 2]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[13, 19]</t>
+          <t>[11, 6]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[27, 1]</t>
+          <t>[23, 20]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[20, 27]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[20, 28]</t>
+          <t>[6, 20]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[1, 20]</t>
+          <t>[11, 13]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[11, 1]</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[27, 19]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>[29, 20]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[23, 29]</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>[28, 14]</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>[11, 19]</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
@@ -4098,37 +7311,72 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[11, 29]</t>
+          <t>[20, 13]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[2, 23]</t>
+          <t>[13, 2]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[13, 19]</t>
+          <t>[11, 6]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[27, 1]</t>
+          <t>[23, 20]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[20, 27]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[20, 28]</t>
+          <t>[6, 20]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[1, 20]</t>
+          <t>[11, 13]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[11, 1]</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[27, 19]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>[29, 20]</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[23, 29]</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>[28, 14]</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>[11, 19]</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
@@ -4138,37 +7386,72 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[11, 29]</t>
+          <t>[20, 13]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[2, 23]</t>
+          <t>[13, 2]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[13, 19]</t>
+          <t>[11, 6]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[27, 1]</t>
+          <t>[23, 20]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[20, 27]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[20, 28]</t>
+          <t>[6, 20]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[1, 20]</t>
+          <t>[11, 13]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[11, 1]</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[27, 19]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[29, 20]</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[23, 29]</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>[28, 14]</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>[11, 19]</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
@@ -4178,37 +7461,72 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[13, 20]</t>
+          <t>[29, 23]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[20, 13]</t>
+          <t>[29, 19]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[27, 28]</t>
+          <t>[19, 20]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[14, 19]</t>
+          <t>[11, 28]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[23, 13]</t>
+          <t>[2, 27]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[6, 14]</t>
+          <t>[28, 19]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[23, 28]</t>
+          <t>[28, 23]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[27, 13]</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[27, 23]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>[19, 20]</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>[23, 27]</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>[29, 28]</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>[19, 11]</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>[13, 19]</t>
         </is>
       </c>
     </row>
@@ -4218,37 +7536,72 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[13, 20]</t>
+          <t>[29, 23]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[20, 13]</t>
+          <t>[29, 19]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[27, 28]</t>
+          <t>[19, 20]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[14, 19]</t>
+          <t>[11, 28]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[23, 13]</t>
+          <t>[2, 27]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[6, 14]</t>
+          <t>[28, 19]</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[23, 28]</t>
+          <t>[28, 23]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[27, 13]</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[27, 23]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>[19, 20]</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[23, 27]</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>[29, 28]</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>[19, 11]</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[13, 19]</t>
         </is>
       </c>
     </row>
@@ -4258,37 +7611,72 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[13, 20]</t>
+          <t>[29, 23]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[20, 13]</t>
+          <t>[29, 19]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[27, 28]</t>
+          <t>[19, 20]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[14, 19]</t>
+          <t>[11, 28]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[23, 13]</t>
+          <t>[2, 27]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[6, 14]</t>
+          <t>[28, 19]</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[23, 28]</t>
+          <t>[28, 23]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[27, 13]</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[27, 23]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>[19, 20]</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[23, 27]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>[29, 28]</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>[19, 11]</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>[13, 19]</t>
         </is>
       </c>
     </row>
@@ -4298,37 +7686,72 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[13, 20]</t>
+          <t>[29, 23]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[20, 13]</t>
+          <t>[29, 19]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[27, 28]</t>
+          <t>[19, 20]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[14, 19]</t>
+          <t>[11, 28]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[23, 13]</t>
+          <t>[2, 27]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[6, 14]</t>
+          <t>[28, 19]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[23, 28]</t>
+          <t>[28, 23]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[27, 13]</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[27, 23]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[19, 20]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[23, 27]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>[29, 28]</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>[19, 11]</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>[13, 19]</t>
         </is>
       </c>
     </row>
@@ -4338,37 +7761,72 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[13, 20]</t>
+          <t>[29, 23]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[20, 13]</t>
+          <t>[29, 19]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[27, 28]</t>
+          <t>[19, 20]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[14, 19]</t>
+          <t>[11, 28]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[23, 13]</t>
+          <t>[2, 27]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[6, 14]</t>
+          <t>[28, 19]</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[23, 28]</t>
+          <t>[28, 23]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[27, 13]</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[27, 23]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>[19, 20]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[23, 27]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>[29, 28]</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>[19, 11]</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[13, 19]</t>
         </is>
       </c>
     </row>
@@ -4378,37 +7836,72 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[13, 20]</t>
+          <t>[29, 23]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[20, 13]</t>
+          <t>[29, 19]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[27, 28]</t>
+          <t>[19, 20]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[14, 19]</t>
+          <t>[11, 28]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[23, 13]</t>
+          <t>[2, 27]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[6, 14]</t>
+          <t>[28, 19]</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[23, 28]</t>
+          <t>[28, 23]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[27, 13]</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[27, 23]</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>[19, 20]</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>[23, 27]</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>[29, 28]</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>[19, 11]</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>[13, 19]</t>
         </is>
       </c>
     </row>
@@ -4418,37 +7911,72 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[13, 20]</t>
+          <t>[29, 23]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[20, 13]</t>
+          <t>[29, 19]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[27, 28]</t>
+          <t>[19, 20]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[14, 19]</t>
+          <t>[11, 28]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[23, 13]</t>
+          <t>[2, 27]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[6, 14]</t>
+          <t>[28, 19]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[23, 28]</t>
+          <t>[28, 23]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[27, 13]</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>[27, 23]</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>[19, 20]</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>[23, 27]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>[29, 28]</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>[19, 11]</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>[13, 19]</t>
         </is>
       </c>
     </row>
@@ -4458,37 +7986,72 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[13, 20]</t>
+          <t>[29, 23]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[20, 13]</t>
+          <t>[29, 19]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[27, 28]</t>
+          <t>[19, 20]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[14, 19]</t>
+          <t>[11, 28]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[23, 13]</t>
+          <t>[2, 27]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[6, 14]</t>
+          <t>[28, 19]</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[23, 28]</t>
+          <t>[28, 23]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[27, 13]</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[27, 23]</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>[19, 20]</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[23, 27]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>[29, 28]</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>[19, 11]</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>[13, 19]</t>
         </is>
       </c>
     </row>
@@ -4515,6 +8078,27 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>0</v>
       </c>
     </row>
